--- a/Dataset/MCB/Results Combined - RMSE - Final.xlsx
+++ b/Dataset/MCB/Results Combined - RMSE - Final.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://psuadacae-my.sharepoint.com/personal/a00021999_sorbonne_ae/Documents/Documents/Course Materials/Intership/Bayesian Neural Network/Paper/Forecastability Tests/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://psuadacae-my.sharepoint.com/personal/a00021999_sorbonne_ae/Documents/Documents/Course Materials/Intership/Bayesian Neural Network/Paper/Revision/Forecastability Tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="387" documentId="13_ncr:1_{6E291C16-6B3F-4D38-B8FF-0CB2E630679C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6873CA80-224A-4F1E-ACF3-C28390083DE8}"/>
+  <xr:revisionPtr revIDLastSave="440" documentId="13_ncr:1_{6E291C16-6B3F-4D38-B8FF-0CB2E630679C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCB445CF-5C02-4754-82B1-690B917D4542}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,7 +93,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +104,19 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -134,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -142,18 +155,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -447,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P62"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -496,28 +513,28 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -558,16 +575,16 @@
       <c r="L2" s="1">
         <v>10.384232293924001</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="5">
         <v>93.806719082956604</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="5">
         <v>48.286753322147398</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="5">
         <v>16.837987614116699</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="5">
         <v>14.688808867901599</v>
       </c>
     </row>
@@ -608,16 +625,16 @@
       <c r="L3" s="1">
         <v>24.371898995395199</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="5">
         <v>190.49703184923399</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="5">
         <v>43.951368627437503</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="5">
         <v>24.205694535877999</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="5">
         <v>23.722742071387401</v>
       </c>
     </row>
@@ -658,16 +675,16 @@
       <c r="L4" s="1">
         <v>41.902784530341698</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="5">
         <v>195.77028478493699</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="5">
         <v>85.484942918149301</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="5">
         <v>70.667994649444594</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="5">
         <v>56.9540531651066</v>
       </c>
     </row>
@@ -708,462 +725,546 @@
       <c r="L5" s="1">
         <v>72.951770900589096</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="5">
         <v>111.82237949036799</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="5">
         <v>134.613203040651</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="5">
         <v>91.363573272505903</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="5">
         <v>94.302318480830493</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="A6" s="1">
+        <v>0.54008969100000004</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.48155690000000001</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.4094985</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.43527934400000001</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.4443548745738499</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.57903576440493</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4.8791370016592497</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2.2246855291101002</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.48005368441128998</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.78018880148352399</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.70734355298145501</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.42827385371258297</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.93463161468231803</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1.13823563037256</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1.46650919937601</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0.47458695740290602</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>0.51883702899999995</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.47185359999999998</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.2784491</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.50627238799999996</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.3500115132466699</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1.15722376915776</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3.0027896179929101</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2.65022261844079</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.47185355701426002</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.72604441105255302</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.77232242399608697</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.68947214846322602</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1.1578058545654299</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1.09921076204641</v>
+      </c>
+      <c r="O7" s="1">
+        <v>2.1229642345731001</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0.89528865956803605</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="A8" s="1">
+        <v>0.89199479100000001</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.81484395799999998</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.61545039999999995</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.1395246000000001</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1.5001695608556</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3.30885874107959</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2.3144224343273199</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3.6524364752188299</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.61545037195706898</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.2757797531530899</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1.1275002615830101</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.963630449133422</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1.57901272713286</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1.4435336787283</v>
+      </c>
+      <c r="O8" s="1">
+        <v>3.2410433144550201</v>
+      </c>
+      <c r="P8" s="1">
+        <v>2.1854459847048</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="A9" s="1">
+        <v>1.8409392520000001</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.612679</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2.0943779999999999</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.415700411</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1.7486686836807299</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2.1036604073649801</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2.8300256781941702</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3.0945576401756401</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1.60207122581529</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.7881763785762399</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1.6061092430756001</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1.5384331746145301</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1.6672449321415701</v>
+      </c>
+      <c r="N9" s="1">
+        <v>2.4718210388253801</v>
+      </c>
+      <c r="O9" s="1">
+        <v>3.3787845928330902</v>
+      </c>
+      <c r="P9" s="1">
+        <v>3.2306746558119301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>35.179113880792499</v>
+      </c>
+      <c r="B10" s="1">
+        <v>40.431895538756798</v>
+      </c>
+      <c r="C10" s="1">
+        <v>34.127824383458403</v>
+      </c>
+      <c r="D10" s="1">
+        <v>30.48404</v>
+      </c>
+      <c r="E10" s="1">
+        <v>111.430245431578</v>
+      </c>
+      <c r="F10" s="1">
+        <v>72.593536371868794</v>
+      </c>
+      <c r="G10" s="1">
+        <v>94.265885895516405</v>
+      </c>
+      <c r="H10" s="1">
+        <v>68.073627899363203</v>
+      </c>
+      <c r="I10" s="1">
+        <v>35.179113880792499</v>
+      </c>
+      <c r="J10" s="1">
+        <v>40.431895538756798</v>
+      </c>
+      <c r="K10" s="1">
+        <v>18.4672221824252</v>
+      </c>
+      <c r="L10" s="1">
+        <v>34.705495948968299</v>
+      </c>
+      <c r="M10" s="1">
+        <v>87.542989843560804</v>
+      </c>
+      <c r="N10" s="1">
+        <v>83.834471388782802</v>
+      </c>
+      <c r="O10" s="1">
+        <v>47.823350758604903</v>
+      </c>
+      <c r="P10" s="1">
+        <v>19.896146518341901</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
+      <c r="A11" s="1">
+        <v>38.663822931922297</v>
+      </c>
+      <c r="B11" s="1">
+        <v>34.548267087779799</v>
+      </c>
+      <c r="C11" s="1">
+        <v>34.421012131825499</v>
+      </c>
+      <c r="D11" s="1">
+        <v>32.600981782299399</v>
+      </c>
+      <c r="E11" s="1">
+        <v>88.740346378179396</v>
+      </c>
+      <c r="F11" s="1">
+        <v>62.154775318349202</v>
+      </c>
+      <c r="G11" s="1">
+        <v>74.413697415334198</v>
+      </c>
+      <c r="H11" s="1">
+        <v>74.278111999020993</v>
+      </c>
+      <c r="I11" s="1">
+        <v>38.663822931922297</v>
+      </c>
+      <c r="J11" s="1">
+        <v>34.548267087779799</v>
+      </c>
+      <c r="K11" s="1">
+        <v>35.910564825837</v>
+      </c>
+      <c r="L11" s="1">
+        <v>34.563914684516803</v>
+      </c>
+      <c r="M11" s="1">
+        <v>78.107148619372794</v>
+      </c>
+      <c r="N11" s="4">
+        <v>54.099594744594697</v>
+      </c>
+      <c r="O11" s="4">
+        <v>35.289264471545799</v>
+      </c>
+      <c r="P11" s="4">
+        <v>58.055329960284404</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
+      <c r="A12" s="1">
+        <v>32.527133061710401</v>
+      </c>
+      <c r="B12" s="1">
+        <v>29.3572457382962</v>
+      </c>
+      <c r="C12" s="1">
+        <v>28.466880417955199</v>
+      </c>
+      <c r="D12" s="1">
+        <v>28.017502300325901</v>
+      </c>
+      <c r="E12" s="1">
+        <v>125.710603978176</v>
+      </c>
+      <c r="F12" s="1">
+        <v>77.471054382657002</v>
+      </c>
+      <c r="G12" s="1">
+        <v>75.483880576734194</v>
+      </c>
+      <c r="H12" s="1">
+        <v>78.707681774506696</v>
+      </c>
+      <c r="I12" s="1">
+        <v>32.527133061710401</v>
+      </c>
+      <c r="J12" s="1">
+        <v>29.3572457382962</v>
+      </c>
+      <c r="K12" s="1">
+        <v>39.140020155720002</v>
+      </c>
+      <c r="L12" s="1">
+        <v>27.913292954889499</v>
+      </c>
+      <c r="M12" s="1">
+        <v>147.77764004880299</v>
+      </c>
+      <c r="N12" s="1">
+        <v>81.756511454606994</v>
+      </c>
+      <c r="O12" s="1">
+        <v>55.2991217515114</v>
+      </c>
+      <c r="P12" s="1">
+        <v>40.6672502987903</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
+      <c r="A13" s="1">
+        <v>64.628697938192204</v>
+      </c>
+      <c r="B13" s="1">
+        <v>53.3444518310394</v>
+      </c>
+      <c r="C13" s="1">
+        <v>53.902831504824</v>
+      </c>
+      <c r="D13" s="1">
+        <v>44.655500000000004</v>
+      </c>
+      <c r="E13" s="1">
+        <v>62.984218170223599</v>
+      </c>
+      <c r="F13" s="1">
+        <v>61.231891704637299</v>
+      </c>
+      <c r="G13" s="1">
+        <v>85.000620508910302</v>
+      </c>
+      <c r="H13" s="1">
+        <v>70.293870915076695</v>
+      </c>
+      <c r="I13" s="1">
+        <v>64.628697938192204</v>
+      </c>
+      <c r="J13" s="1">
+        <v>53.3444518310394</v>
+      </c>
+      <c r="K13" s="1">
+        <v>72.358792070973195</v>
+      </c>
+      <c r="L13" s="1">
+        <v>44.900128097755903</v>
+      </c>
+      <c r="M13" s="1">
+        <v>66.888283708899607</v>
+      </c>
+      <c r="N13" s="1">
+        <v>60.1506833721226</v>
+      </c>
+      <c r="O13" s="1">
+        <v>65.9733743825076</v>
+      </c>
+      <c r="P13" s="1">
+        <v>75.612349382556403</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
       <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="H44" s="1"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H50" s="1"/>
-    </row>
-    <row r="51" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H51" s="1"/>
-    </row>
-    <row r="52" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H52" s="1"/>
-    </row>
-    <row r="53" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H53" s="1"/>
-    </row>
-    <row r="54" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H54" s="1"/>
-    </row>
-    <row r="55" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H55" s="1"/>
-    </row>
-    <row r="56" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H56" s="1"/>
-    </row>
-    <row r="57" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H57" s="1"/>
-    </row>
-    <row r="58" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H58" s="1"/>
-    </row>
-    <row r="59" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H59" s="1"/>
-    </row>
-    <row r="60" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H60" s="1"/>
-    </row>
-    <row r="61" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H61" s="1"/>
-    </row>
-    <row r="62" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H62" s="1"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
